--- a/biology/Médecine/Jean_Guyotat/Jean_Guyotat.xlsx
+++ b/biology/Médecine/Jean_Guyotat/Jean_Guyotat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Guyotat, né le 16 décembre 1920 à Bourg-Argental et mort le 29 septembre 2017 à Lyon, est un neuropsychiatre et psychanalyste français, professeur en psychiatrie. Il a développé l’école universitaire lyonnaise de psychiatrie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est agrégé en neuropsychiatrie en 1958[1]. Il a en particulier travaillé sur la filiation et a rédigé avec Jean Courjon dès 1956 la première description de l'ictus amnésique. Travaillant sur des patients souffrant de lombalgies chroniques, il a également développé la notion de "chrone", comme rupture dans le phénomène de filiation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est agrégé en neuropsychiatrie en 1958. Il a en particulier travaillé sur la filiation et a rédigé avec Jean Courjon dès 1956 la première description de l'ictus amnésique. Travaillant sur des patients souffrant de lombalgies chroniques, il a également développé la notion de "chrone", comme rupture dans le phénomène de filiation.
 Il est fondateur du Groupe lyonnais de psychanalyse, mais également membre d'honneur de l'Association française de thérapie comportementale et cognitive.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Schizophrénies, Paris : Éditions Heures de France, 1963
 Psychothérapies médicales
